--- a/tut05/output/0401ME28.xlsx
+++ b/tut05/output/0401ME28.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.346938775510204</v>
+        <v>6.35</v>
       </c>
       <c r="C6" t="n">
-        <v>5.704545454545454</v>
+        <v>5.7</v>
       </c>
       <c r="D6" t="n">
-        <v>7.085106382978723</v>
+        <v>7.09</v>
       </c>
       <c r="E6" t="n">
-        <v>6.530612244897959</v>
+        <v>6.53</v>
       </c>
       <c r="F6" t="n">
-        <v>6.260869565217392</v>
+        <v>6.26</v>
       </c>
       <c r="G6" t="n">
-        <v>5.869565217391305</v>
+        <v>5.87</v>
       </c>
       <c r="H6" t="n">
         <v>7.35</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.346938775510204</v>
+        <v>6.35</v>
       </c>
       <c r="C8" t="n">
-        <v>6.043010752688172</v>
+        <v>6.04</v>
       </c>
       <c r="D8" t="n">
-        <v>6.392857142857143</v>
+        <v>6.39</v>
       </c>
       <c r="E8" t="n">
-        <v>6.428571428571429</v>
+        <v>6.43</v>
       </c>
       <c r="F8" t="n">
-        <v>6.395744680851064</v>
+        <v>6.4</v>
       </c>
       <c r="G8" t="n">
-        <v>6.309608540925267</v>
+        <v>6.31</v>
       </c>
       <c r="H8" t="n">
-        <v>6.439252336448599</v>
+        <v>6.44</v>
       </c>
       <c r="I8" t="n">
-        <v>6.518005540166205</v>
+        <v>6.52</v>
       </c>
     </row>
   </sheetData>
